--- a/25th Feb Batch/T_Test.xlsx
+++ b/25th Feb Batch/T_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F082E2-D5D3-45C4-8D4A-6A82738F3406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA7EB99-A370-49E4-BB94-59ED1746575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>T test is also called parametric test</t>
   </si>
@@ -109,6 +100,21 @@
   </si>
   <si>
     <t>cal value &gt; tablulated value</t>
+  </si>
+  <si>
+    <t>degree of freedom (DF)</t>
+  </si>
+  <si>
+    <t>0.05 , 10</t>
+  </si>
+  <si>
+    <t>0.01, 10</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -130,12 +136,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -165,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +198,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,31 +499,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -897,6 +923,29 @@
       <c r="C29" s="3">
         <f>SQRT((H22+I22)/((B24+C24)-2))</f>
         <v>9.2116526994098855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <f>B24-1</f>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
